--- a/Data_preparation/datasets/final_data/ASML_Holding_NV.xlsx
+++ b/Data_preparation/datasets/final_data/ASML_Holding_NV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,99 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>000660 KS</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>CGNX</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>6702 JP</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>3690 HK</t>
   </si>
 </sst>
 </file>
@@ -745,22 +652,22 @@
         <v>42092</v>
       </c>
       <c r="D2">
-        <v>39959.5931194136</v>
+        <v>90.92885540984577</v>
       </c>
       <c r="E2">
-        <v>40133.51953125</v>
+        <v>96.25222015380859</v>
       </c>
       <c r="F2">
-        <v>41307.52281114572</v>
+        <v>99.9929605364234</v>
       </c>
       <c r="G2">
-        <v>36133.21205901273</v>
+        <v>84.48146218578815</v>
       </c>
       <c r="H2">
-        <v>690412123</v>
+        <v>388147674</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>44098788436</v>
@@ -873,22 +780,22 @@
         <v>42183</v>
       </c>
       <c r="D3">
-        <v>22.20472198577177</v>
+        <v>97.60996421740757</v>
       </c>
       <c r="E3">
-        <v>24.99118041992188</v>
+        <v>89.84574127197266</v>
       </c>
       <c r="F3">
-        <v>24.99118041992188</v>
+        <v>97.99953462054374</v>
       </c>
       <c r="G3">
-        <v>21.11994795200058</v>
+        <v>87.68045670237217</v>
       </c>
       <c r="H3">
-        <v>229140423</v>
+        <v>388147674</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>47094700629</v>
@@ -1001,22 +908,22 @@
         <v>42274</v>
       </c>
       <c r="D4">
-        <v>417.03291015625</v>
+        <v>78.13148860854035</v>
       </c>
       <c r="E4">
-        <v>521.2911376953125</v>
+        <v>84.06564331054688</v>
       </c>
       <c r="F4">
-        <v>525.461466796875</v>
+        <v>85.53332917877151</v>
       </c>
       <c r="G4">
-        <v>414.5307126953125</v>
+        <v>76.5097882420616</v>
       </c>
       <c r="H4">
-        <v>275900103</v>
+        <v>388147674</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>36951026831</v>
@@ -1129,22 +1036,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>27.125</v>
+        <v>79.08275603037816</v>
       </c>
       <c r="E5">
-        <v>25.34499931335449</v>
+        <v>83.20494842529297</v>
       </c>
       <c r="F5">
-        <v>27.125</v>
+        <v>83.28648997314409</v>
       </c>
       <c r="G5">
-        <v>22.22999954223633</v>
+        <v>69.91426365048702</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>388147674</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>38431665516</v>
@@ -1257,22 +1164,22 @@
         <v>42463</v>
       </c>
       <c r="D6">
-        <v>2.789999961853028</v>
+        <v>90.05413391194676</v>
       </c>
       <c r="E6">
-        <v>3.549999952316284</v>
+        <v>87.51739501953125</v>
       </c>
       <c r="F6">
-        <v>3.990000009536743</v>
+        <v>92.95325815008673</v>
       </c>
       <c r="G6">
-        <v>2.599999904632568</v>
+        <v>86.18560744661599</v>
       </c>
       <c r="H6">
-        <v>1622843689</v>
+        <v>388147674</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>43042620609</v>
@@ -1385,22 +1292,22 @@
         <v>42554</v>
       </c>
       <c r="D7">
-        <v>19.28664066691623</v>
+        <v>90.18045633534425</v>
       </c>
       <c r="E7">
-        <v>20.70916748046875</v>
+        <v>100.4938659667969</v>
       </c>
       <c r="F7">
-        <v>21.18072376920944</v>
+        <v>101.6214615030677</v>
       </c>
       <c r="G7">
-        <v>18.13918698101267</v>
+        <v>85.11083665913154</v>
       </c>
       <c r="H7">
-        <v>199618386</v>
+        <v>388147674</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>42131008976</v>
@@ -1513,22 +1420,22 @@
         <v>42645</v>
       </c>
       <c r="D8">
-        <v>22.53000068664551</v>
+        <v>100.2555232810406</v>
       </c>
       <c r="E8">
-        <v>21.92000007629395</v>
+        <v>96.82688903808594</v>
       </c>
       <c r="F8">
-        <v>22.8799991607666</v>
+        <v>100.7047276698905</v>
       </c>
       <c r="G8">
-        <v>20.55999946594238</v>
+        <v>91.71143548688508</v>
       </c>
       <c r="H8">
-        <v>48253392</v>
+        <v>388147674</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>46898780614</v>
@@ -1641,22 +1548,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>534.967198865167</v>
+        <v>101.7406372699302</v>
       </c>
       <c r="E9">
-        <v>450.4078674316406</v>
+        <v>111.2931442260742</v>
       </c>
       <c r="F9">
-        <v>571.2069123366783</v>
+        <v>115.4001689737709</v>
       </c>
       <c r="G9">
-        <v>445.230765507139</v>
+        <v>100.4938601515366</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>388147674</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>48020105720</v>
@@ -1769,22 +1676,22 @@
         <v>42827</v>
       </c>
       <c r="D10">
-        <v>31.714543606655</v>
+        <v>121.3315197410946</v>
       </c>
       <c r="E10">
-        <v>29.28191375732422</v>
+        <v>120.8731460571289</v>
       </c>
       <c r="F10">
-        <v>35.41908996993069</v>
+        <v>123.7150545046432</v>
       </c>
       <c r="G10">
-        <v>28.63552904239356</v>
+        <v>115.5468390933732</v>
       </c>
       <c r="H10">
-        <v>212968277</v>
+        <v>388147674</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>57096195610</v>
@@ -1897,22 +1804,22 @@
         <v>42918</v>
       </c>
       <c r="D11">
-        <v>33.58000183105469</v>
+        <v>121.3788315615825</v>
       </c>
       <c r="E11">
-        <v>36.90000152587891</v>
+        <v>139.1829071044922</v>
       </c>
       <c r="F11">
-        <v>37.5099983215332</v>
+        <v>144.1824869601744</v>
       </c>
       <c r="G11">
-        <v>32.84999847412109</v>
+        <v>119.7400745787592</v>
       </c>
       <c r="H11">
-        <v>272490000</v>
+        <v>388147674</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>56025641942</v>
@@ -2025,22 +1932,22 @@
         <v>43009</v>
       </c>
       <c r="D12">
-        <v>140.6199951171875</v>
+        <v>157.7554746759066</v>
       </c>
       <c r="E12">
-        <v>145.1600036621094</v>
+        <v>167.3472747802734</v>
       </c>
       <c r="F12">
-        <v>149</v>
+        <v>167.5509627732638</v>
       </c>
       <c r="G12">
-        <v>140.6199951171875</v>
+        <v>155.2649375930761</v>
       </c>
       <c r="H12">
-        <v>24003656</v>
+        <v>388147674</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>73605938918</v>
@@ -2153,22 +2060,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>21.06097328157131</v>
+        <v>161.2274139085169</v>
       </c>
       <c r="E13">
-        <v>21.5913028717041</v>
+        <v>187.910400390625</v>
       </c>
       <c r="F13">
-        <v>23.51893322585045</v>
+        <v>193.113669496508</v>
       </c>
       <c r="G13">
-        <v>20.76122322733137</v>
+        <v>161.0792746139941</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>388147674</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>74732384946</v>
@@ -2281,22 +2188,22 @@
         <v>43191</v>
       </c>
       <c r="D14">
-        <v>48.54999923706055</v>
+        <v>182.8274679978861</v>
       </c>
       <c r="E14">
-        <v>46.59000015258789</v>
+        <v>174.4763031005859</v>
       </c>
       <c r="F14">
-        <v>53.4900016784668</v>
+        <v>197.529959852706</v>
       </c>
       <c r="G14">
-        <v>44.13000106811523</v>
+        <v>173.7171139975621</v>
       </c>
       <c r="H14">
-        <v>42689006</v>
+        <v>388147674</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>84863271628</v>
@@ -2409,22 +2316,22 @@
         <v>43282</v>
       </c>
       <c r="D15">
-        <v>41.584293711384</v>
+        <v>180.8507457923005</v>
       </c>
       <c r="E15">
-        <v>49.44399642944336</v>
+        <v>199.8866882324219</v>
       </c>
       <c r="F15">
-        <v>50.98970827940524</v>
+        <v>207.0415142318016</v>
       </c>
       <c r="G15">
-        <v>40.9660096861165</v>
+        <v>177.2920177822027</v>
       </c>
       <c r="H15">
-        <v>167899010</v>
+        <v>388147674</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>84611109408</v>
@@ -2537,22 +2444,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>118.8699784743474</v>
+        <v>178.2821023923782</v>
       </c>
       <c r="E16">
-        <v>131.6345367431641</v>
+        <v>160.9928436279297</v>
       </c>
       <c r="F16">
-        <v>137.6179242105138</v>
+        <v>179.8232933008194</v>
       </c>
       <c r="G16">
-        <v>98.52645983921131</v>
+        <v>147.5331809565631</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>388147674</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>80358543168</v>
@@ -2665,22 +2572,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>178.7038649689565</v>
+        <v>144.105206198179</v>
       </c>
       <c r="E17">
-        <v>142.8035278320312</v>
+        <v>163.4867401123047</v>
       </c>
       <c r="F17">
-        <v>181.4961066283612</v>
+        <v>165.8779053895078</v>
       </c>
       <c r="G17">
-        <v>142.8035278320312</v>
+        <v>137.6602680915779</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>388147674</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>66510990787</v>
@@ -2793,22 +2700,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1096.205709613841</v>
+        <v>178.6277101746051</v>
       </c>
       <c r="E18">
-        <v>1205.027587890625</v>
+        <v>195.0483093261719</v>
       </c>
       <c r="F18">
-        <v>1294.880514908153</v>
+        <v>195.2257668372502</v>
       </c>
       <c r="G18">
-        <v>1035.305392413072</v>
+        <v>178.1793559553855</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>388147674</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>79187427938</v>
@@ -2921,22 +2828,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>40544.09822043826</v>
+        <v>204.0882224516673</v>
       </c>
       <c r="E19">
-        <v>38831.5703125</v>
+        <v>210.5519104003907</v>
       </c>
       <c r="F19">
-        <v>40715.35101123209</v>
+        <v>221.5987771190891</v>
       </c>
       <c r="G19">
-        <v>37975.30635853087</v>
+        <v>193.1169561932205</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>388147674</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>87558850791</v>
@@ -3049,22 +2956,22 @@
         <v>43737</v>
       </c>
       <c r="D20">
-        <v>375.8331757494683</v>
+        <v>235.4616662731024</v>
       </c>
       <c r="E20">
-        <v>455.8550720214844</v>
+        <v>247.5574645996093</v>
       </c>
       <c r="F20">
-        <v>460.3506841715976</v>
+        <v>254.5692587092618</v>
       </c>
       <c r="G20">
-        <v>359.6489720090606</v>
+        <v>225.1802355326746</v>
       </c>
       <c r="H20">
-        <v>275900103</v>
+        <v>388147674</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>102625727535</v>
@@ -3177,22 +3084,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>222.8461507933775</v>
+        <v>285.9316235671533</v>
       </c>
       <c r="E21">
-        <v>219.044937133789</v>
+        <v>266.3709411621094</v>
       </c>
       <c r="F21">
-        <v>252.7807083626373</v>
+        <v>290.3259039851951</v>
       </c>
       <c r="G21">
-        <v>203.3649307879864</v>
+        <v>265.9058974858189</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>388147674</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>124619661920</v>
@@ -3305,22 +3212,22 @@
         <v>43919</v>
       </c>
       <c r="D22">
-        <v>915.0351038365764</v>
+        <v>240.2425767403694</v>
       </c>
       <c r="E22">
-        <v>987.2894897460938</v>
+        <v>273.745361328125</v>
       </c>
       <c r="F22">
-        <v>1014.466893830229</v>
+        <v>289.24397985695</v>
       </c>
       <c r="G22">
-        <v>861.7111398400884</v>
+        <v>229.9164978181778</v>
       </c>
       <c r="H22">
-        <v>1778087515</v>
+        <v>388147674</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>106052580550</v>
@@ -3433,22 +3340,22 @@
         <v>44010</v>
       </c>
       <c r="D23">
-        <v>47006.4862775259</v>
+        <v>351.061438603179</v>
       </c>
       <c r="E23">
-        <v>50967.70703125</v>
+        <v>337.4112243652344</v>
       </c>
       <c r="F23">
-        <v>53168.38522776339</v>
+        <v>384.2950860663689</v>
       </c>
       <c r="G23">
-        <v>45862.13361533894</v>
+        <v>334.5686111342923</v>
       </c>
       <c r="H23">
-        <v>5876745450</v>
+        <v>388147674</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>151870721003</v>
@@ -3561,22 +3468,22 @@
         <v>44101</v>
       </c>
       <c r="D24">
-        <v>67.0365573733727</v>
+        <v>358.2156084474718</v>
       </c>
       <c r="E24">
-        <v>64.00115203857422</v>
+        <v>344.5558471679688</v>
       </c>
       <c r="F24">
-        <v>68.47148302140339</v>
+        <v>390.2473378984965</v>
       </c>
       <c r="G24">
-        <v>63.04453727911305</v>
+        <v>340.9024480392986</v>
       </c>
       <c r="H24">
-        <v>229140423</v>
+        <v>388147674</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>151333363299</v>
@@ -3689,22 +3596,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>32.50755730601569</v>
+        <v>478.7874784014135</v>
       </c>
       <c r="E25">
-        <v>31.25653076171875</v>
+        <v>511.5084533691406</v>
       </c>
       <c r="F25">
-        <v>32.99459606093095</v>
+        <v>549.4674986060739</v>
       </c>
       <c r="G25">
-        <v>30.77904021483708</v>
+        <v>468.9721385956826</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>388147674</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>204062048000</v>
@@ -3817,22 +3724,22 @@
         <v>44290</v>
       </c>
       <c r="D26">
-        <v>492.260009765625</v>
+        <v>593.5170319524951</v>
       </c>
       <c r="E26">
-        <v>521.4099731445312</v>
+        <v>620.616943359375</v>
       </c>
       <c r="F26">
-        <v>547.5700073242188</v>
+        <v>646.9987173714082</v>
       </c>
       <c r="G26">
-        <v>490</v>
+        <v>586.7947586174027</v>
       </c>
       <c r="H26">
-        <v>24003656</v>
+        <v>388147674</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>265361091061</v>
@@ -3945,22 +3852,22 @@
         <v>44381</v>
       </c>
       <c r="D27">
-        <v>133.5278109717678</v>
+        <v>660.0014242670134</v>
       </c>
       <c r="E27">
-        <v>142.5795440673828</v>
+        <v>736.3504638671875</v>
       </c>
       <c r="F27">
-        <v>146.6264330221702</v>
+        <v>738.2328009138233</v>
       </c>
       <c r="G27">
-        <v>132.7066916109785</v>
+        <v>638.4796641783259</v>
       </c>
       <c r="H27">
-        <v>14840390000</v>
+        <v>388147674</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>285535362000</v>
@@ -4073,22 +3980,22 @@
         <v>44472</v>
       </c>
       <c r="D28">
-        <v>74.35084416868511</v>
+        <v>715.4721983993965</v>
       </c>
       <c r="E28">
-        <v>81.03029632568359</v>
+        <v>780.6618041992188</v>
       </c>
       <c r="F28">
-        <v>81.17023033450081</v>
+        <v>789.3434860149313</v>
       </c>
       <c r="G28">
-        <v>73.18473929077386</v>
+        <v>680.9278842848639</v>
       </c>
       <c r="H28">
-        <v>121301203</v>
+        <v>388147674</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>306367530000</v>
@@ -4201,22 +4108,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>98.06110899770088</v>
+        <v>766.178561700371</v>
       </c>
       <c r="E29">
-        <v>84.43734741210938</v>
+        <v>652.0422973632812</v>
       </c>
       <c r="F29">
-        <v>98.06110899770088</v>
+        <v>769.6640754187806</v>
       </c>
       <c r="G29">
-        <v>80.56356001156674</v>
+        <v>597.6123364827146</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>388147674</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>324745506000</v>
@@ -4329,22 +4236,22 @@
         <v>44654</v>
       </c>
       <c r="D30">
-        <v>237.3500061035156</v>
+        <v>650.2032782788768</v>
       </c>
       <c r="E30">
-        <v>206.6999969482422</v>
+        <v>542.8262329101562</v>
       </c>
       <c r="F30">
-        <v>245.8300018310547</v>
+        <v>656.221093767734</v>
       </c>
       <c r="G30">
-        <v>200.6699981689453</v>
+        <v>523.7906601501297</v>
       </c>
       <c r="H30">
-        <v>217000000</v>
+        <v>388147674</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>268829175048</v>
@@ -4457,22 +4364,22 @@
         <v>44745</v>
       </c>
       <c r="D31">
-        <v>5.400000095367432</v>
+        <v>441.3986589690715</v>
       </c>
       <c r="E31">
-        <v>6.130000114440918</v>
+        <v>556.9010620117188</v>
       </c>
       <c r="F31">
-        <v>6.25</v>
+        <v>559.3053231198335</v>
       </c>
       <c r="G31">
-        <v>5.260000228881836</v>
+        <v>400.0702732427433</v>
       </c>
       <c r="H31">
-        <v>590361084</v>
+        <v>388147674</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>180426813000</v>
@@ -4585,22 +4492,22 @@
         <v>44836</v>
       </c>
       <c r="D32">
-        <v>3.25</v>
+        <v>411.6506633008337</v>
       </c>
       <c r="E32">
-        <v>2.900000095367432</v>
+        <v>459.093505859375</v>
       </c>
       <c r="F32">
-        <v>3.569999933242798</v>
+        <v>482.2026940787879</v>
       </c>
       <c r="G32">
-        <v>2.799999952316284</v>
+        <v>352.9058869480995</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>388147674</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>165475440000</v>
@@ -4713,22 +4620,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>17.67499923706055</v>
+        <v>547.0895063465185</v>
       </c>
       <c r="E33">
-        <v>19.1200008392334</v>
+        <v>644.1323852539062</v>
       </c>
       <c r="F33">
-        <v>19.76000022888184</v>
+        <v>667.6230548984161</v>
       </c>
       <c r="G33">
-        <v>17.08499908447266</v>
+        <v>531.9716273143085</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>388147674</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>216483680000</v>
@@ -4841,22 +4748,22 @@
         <v>45018</v>
       </c>
       <c r="D34">
-        <v>48.39275988647957</v>
+        <v>659.1669451368648</v>
       </c>
       <c r="E34">
-        <v>46.79340362548828</v>
+        <v>622.1058959960938</v>
       </c>
       <c r="F34">
-        <v>48.94223296355696</v>
+        <v>665.8093981029938</v>
       </c>
       <c r="G34">
-        <v>45.97900997260158</v>
+        <v>591.726411301878</v>
       </c>
       <c r="H34">
-        <v>167899010</v>
+        <v>388147674</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>268600957962</v>
@@ -4969,22 +4876,22 @@
         <v>45109</v>
       </c>
       <c r="D35">
-        <v>436.1446182208199</v>
+        <v>719.0835849546435</v>
       </c>
       <c r="E35">
-        <v>428.3382873535156</v>
+        <v>701.860595703125</v>
       </c>
       <c r="F35">
-        <v>444.701772488369</v>
+        <v>756.3020466960675</v>
       </c>
       <c r="G35">
-        <v>415.4496223149758</v>
+        <v>659.6653453680987</v>
       </c>
       <c r="H35">
-        <v>142720067</v>
+        <v>388147674</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>285913875000</v>
@@ -5097,22 +5004,22 @@
         <v>45200</v>
       </c>
       <c r="D36">
-        <v>16.03000068664551</v>
+        <v>572.7863844551795</v>
       </c>
       <c r="E36">
-        <v>14.80000019073486</v>
+        <v>587.9563598632812</v>
       </c>
       <c r="F36">
-        <v>18.44000053405762</v>
+        <v>612.8763434057247</v>
       </c>
       <c r="G36">
-        <v>14.55000019073486</v>
+        <v>557.2826052244899</v>
       </c>
       <c r="H36">
-        <v>2274261581</v>
+        <v>388147674</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>234463278000</v>
@@ -5225,22 +5132,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>124.5980016318655</v>
+        <v>718.6045542630967</v>
       </c>
       <c r="E37">
-        <v>132.1493988037109</v>
+        <v>856.241943359375</v>
       </c>
       <c r="F37">
-        <v>136.1187273141222</v>
+        <v>870.2005835185993</v>
       </c>
       <c r="G37">
-        <v>122.5649354352075</v>
+        <v>685.2140690579396</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>388147674</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>297772328000</v>
@@ -5353,22 +5260,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4156.728619089413</v>
+        <v>966.1536293233318</v>
       </c>
       <c r="E38">
-        <v>4553.76318359375</v>
+        <v>860.3535766601562</v>
       </c>
       <c r="F38">
-        <v>5096.40944657156</v>
+        <v>1008.457821067475</v>
       </c>
       <c r="G38">
-        <v>3750.957352676668</v>
+        <v>843.7080524005079</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>388147674</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>381803977579</v>
@@ -5481,22 +5388,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>2890.935410112718</v>
+        <v>1023.292591916819</v>
       </c>
       <c r="E39">
-        <v>2691.009033203125</v>
+        <v>925.6126098632812</v>
       </c>
       <c r="F39">
-        <v>3014.889763796666</v>
+        <v>1096.950205034136</v>
       </c>
       <c r="G39">
-        <v>2519.072349060875</v>
+        <v>840.1166986429427</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>388147674</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>402341982000</v>
@@ -5609,22 +5516,22 @@
         <v>45564</v>
       </c>
       <c r="D40">
-        <v>149.5</v>
+        <v>831.2783607476397</v>
       </c>
       <c r="E40">
-        <v>149.5</v>
+        <v>665.8206176757812</v>
       </c>
       <c r="F40">
-        <v>152.4900054931641</v>
+        <v>864.9084966854472</v>
       </c>
       <c r="G40">
-        <v>143.1900024414062</v>
+        <v>660.5439314288184</v>
       </c>
       <c r="H40">
-        <v>168262866</v>
+        <v>388147674</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>330893528000</v>
@@ -5737,22 +5644,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2476.994723535176</v>
+        <v>699.9033757713656</v>
       </c>
       <c r="E41">
-        <v>2384.00341796875</v>
+        <v>733.6115112304688</v>
       </c>
       <c r="F41">
-        <v>2758.415779854624</v>
+        <v>778.7707369281133</v>
       </c>
       <c r="G41">
-        <v>2325.761495008725</v>
+        <v>661.4619267840154</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>388147674</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>272519056000</v>
@@ -5865,22 +5772,22 @@
         <v>45746</v>
       </c>
       <c r="D42">
-        <v>157.6999969482422</v>
+        <v>660.841955796277</v>
       </c>
       <c r="E42">
-        <v>130.3000030517578</v>
+        <v>664.332275390625</v>
       </c>
       <c r="F42">
-        <v>160.8000030517578</v>
+        <v>688.4064252309196</v>
       </c>
       <c r="G42">
-        <v>125</v>
+        <v>575.264730709894</v>
       </c>
       <c r="H42">
-        <v>5527428787</v>
+        <v>388147674</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>265301331838</v>
